--- a/脚本整理-v1.2.xlsx
+++ b/脚本整理-v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="脚本统计" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="158">
   <si>
     <t>脚本名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,10 +303,6 @@
   </si>
   <si>
     <t>ssh远程控制多台主机进行ogg巡检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssh批量主机巡检，并邮件结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -590,6 +586,61 @@
   </si>
   <si>
     <t>一次只能同步同一级别的文件和文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个nginx文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期ssh批量主机巡检，并邮件结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测机到目标服务器的路由轨迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scapy_123.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个工作表并写入简单数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlsx_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制自动化业务流量表周报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlsx_3.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016/10/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmap_1.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现高效的端口扫描</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -764,11 +815,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -955,15 +1043,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,9 +1058,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,138 +1066,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1132,20 +1079,189 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1472,10 +1588,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D25"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1605,7 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1498,308 +1614,353 @@
       <c r="D1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="127" t="s">
-        <v>124</v>
+      <c r="E1" s="80" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="81" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="11">
         <v>42620</v>
       </c>
-      <c r="E2" s="124"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="72" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="12">
         <v>42620</v>
       </c>
-      <c r="E3" s="124"/>
+      <c r="E3" s="77"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="72" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="12">
         <v>42584</v>
       </c>
-      <c r="E4" s="124"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="72" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="12">
         <v>42605</v>
       </c>
-      <c r="E5" s="124"/>
+      <c r="E5" s="77"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="72" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="12">
         <v>42643</v>
       </c>
-      <c r="E6" s="124"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="76" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="72" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="12">
         <v>42656</v>
       </c>
-      <c r="E7" s="124"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="76" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="72" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="12">
         <v>42670</v>
       </c>
-      <c r="E8" s="124"/>
+      <c r="E8" s="77"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="E9" s="124"/>
+      <c r="A9" s="96"/>
+      <c r="E9" s="77"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="74"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="124"/>
+      <c r="E10" s="77"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="71" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="13">
         <v>42621</v>
       </c>
-      <c r="E11" s="123"/>
+      <c r="E11" s="76"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="72" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="12">
         <v>42572</v>
       </c>
-      <c r="E12" s="124"/>
+      <c r="E12" s="77"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="99"/>
+      <c r="B13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="72" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="12">
         <v>42611</v>
       </c>
-      <c r="E13" s="124"/>
+      <c r="E13" s="77"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="99"/>
+      <c r="B14" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="72" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="12">
         <v>42636</v>
       </c>
-      <c r="E14" s="124"/>
+      <c r="E14" s="77"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="72" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="12">
         <v>42661</v>
       </c>
-      <c r="E15" s="124"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="74"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="77"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="74"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="77"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="74"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="77"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="74"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="124"/>
+      <c r="E19" s="77"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="134" t="s">
+      <c r="A20" s="99"/>
+      <c r="B20" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="71" t="s">
         <v>122</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>123</v>
       </c>
       <c r="D20" s="65">
         <v>42668</v>
       </c>
-      <c r="E20" s="133" t="s">
+      <c r="E20" s="93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="99"/>
+      <c r="B21" s="84" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="129" t="s">
+      <c r="C21" s="72" t="s">
         <v>126</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>127</v>
       </c>
       <c r="D21" s="11">
         <v>42669</v>
       </c>
-      <c r="E21" s="131"/>
+      <c r="E21" s="94"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>130</v>
+      <c r="A22" s="99"/>
+      <c r="B22" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="D22" s="11">
         <v>42669</v>
       </c>
-      <c r="E22" s="131"/>
+      <c r="E22" s="94"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="129" t="s">
+      <c r="A23" s="99"/>
+      <c r="B23" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="72" t="s">
         <v>129</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>130</v>
       </c>
       <c r="D23" s="11">
         <v>42671</v>
       </c>
-      <c r="E23" s="131"/>
+      <c r="E23" s="94"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="129" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>123</v>
+      <c r="A24" s="99"/>
+      <c r="B24" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>122</v>
       </c>
       <c r="D24" s="11">
         <v>42671</v>
       </c>
-      <c r="E24" s="131"/>
+      <c r="E24" s="94"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="129" t="s">
+      <c r="A25" s="99"/>
+      <c r="B25" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="72" t="s">
         <v>132</v>
-      </c>
-      <c r="C25" s="74" t="s">
-        <v>133</v>
       </c>
       <c r="D25" s="11">
         <v>42672</v>
       </c>
-      <c r="E25" s="131"/>
+      <c r="E25" s="94"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="131"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="11">
+        <v>42675</v>
+      </c>
+      <c r="E26" s="94"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="132"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="11">
+        <v>42674</v>
+      </c>
+      <c r="E27" s="94"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="99"/>
+      <c r="B28" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="94"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="99"/>
+      <c r="B29" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="11">
+        <v>42676</v>
+      </c>
+      <c r="E29" s="94"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="100"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="E20:E30"/>
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A27"/>
+    <mergeCell ref="A11:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,10 +1973,10 @@
   <sheetPr>
     <tabColor rgb="FF58B5A2"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1851,10 +2012,10 @@
       <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="104" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="57" t="s">
@@ -1875,8 +2036,8 @@
       <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="90"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="58" t="s">
         <v>41</v>
       </c>
@@ -1893,8 +2054,8 @@
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="90"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="58" t="s">
         <v>17</v>
       </c>
@@ -1911,8 +2072,8 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="63"/>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
@@ -1923,8 +2084,8 @@
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="104" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -1945,8 +2106,8 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="89"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="63"/>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
@@ -1957,8 +2118,8 @@
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="88" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="104" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -1979,8 +2140,8 @@
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="63"/>
       <c r="D9" s="63"/>
       <c r="E9" s="63"/>
@@ -1991,8 +2152,8 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="104" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -2013,8 +2174,8 @@
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="90"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -2025,8 +2186,8 @@
       <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="88" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="104" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -2047,8 +2208,8 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
@@ -2059,8 +2220,8 @@
       <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="75" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="69" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="57" t="s">
@@ -2079,61 +2240,61 @@
       <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>127</v>
+      <c r="A15" s="102"/>
+      <c r="B15" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>126</v>
       </c>
       <c r="D15" s="11">
         <v>42669</v>
       </c>
-      <c r="E15" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="78"/>
+      <c r="E15" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="75"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>130</v>
+      <c r="A16" s="102"/>
+      <c r="B16" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="D16" s="11">
         <v>42669</v>
       </c>
-      <c r="E16" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="78"/>
+      <c r="E16" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="75"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>130</v>
+      <c r="A17" s="102"/>
+      <c r="B17" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="D17" s="11">
         <v>42671</v>
       </c>
-      <c r="E17" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="78" t="s">
-        <v>144</v>
+      <c r="E17" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>143</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -2141,38 +2302,40 @@
       <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>123</v>
+      <c r="A18" s="102"/>
+      <c r="B18" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>122</v>
       </c>
       <c r="D18" s="11">
         <v>42671</v>
       </c>
-      <c r="E18" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="78"/>
+      <c r="E18" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>144</v>
+      </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>133</v>
+      <c r="A19" s="102"/>
+      <c r="B19" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>132</v>
       </c>
       <c r="D19" s="11">
         <v>42672</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="21"/>
@@ -2181,11 +2344,19 @@
       <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="31"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="11">
+        <v>42675</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>146</v>
+      </c>
       <c r="F20" s="36"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -2193,11 +2364,19 @@
       <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="31"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="11">
+        <v>42674</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>149</v>
+      </c>
       <c r="F21" s="36"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -2205,50 +2384,102 @@
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="87"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="11">
+        <v>42676</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="87"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
@@ -2257,6 +2488,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2268,7 +2500,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2304,22 +2536,22 @@
       <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="91">
+      <c r="D2" s="115">
         <v>42486</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="107" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="27"/>
@@ -2328,20 +2560,20 @@
       <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="94"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="90"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
@@ -2358,8 +2590,8 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -2370,8 +2602,8 @@
       <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="114"/>
+      <c r="B6" s="109" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -2392,8 +2624,8 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2410,8 +2642,8 @@
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -2428,8 +2660,8 @@
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="22"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -2440,8 +2672,8 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="114"/>
+      <c r="B10" s="109" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -2462,8 +2694,8 @@
       <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="90"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="9" t="s">
         <v>56</v>
       </c>
@@ -2480,8 +2712,8 @@
       <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
@@ -2496,16 +2728,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88" t="s">
+      <c r="A14" s="114"/>
+      <c r="B14" s="109" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -2522,16 +2754,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="3"/>
       <c r="D15" s="39"/>
       <c r="E15" s="10"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88" t="s">
+      <c r="A16" s="114"/>
+      <c r="B16" s="109" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="50" t="s">
@@ -2548,16 +2780,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88" t="s">
+      <c r="A18" s="114"/>
+      <c r="B18" s="109" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="53" t="s">
@@ -2570,12 +2802,12 @@
         <v>58</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="90"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="54" t="s">
         <v>57</v>
       </c>
@@ -2590,16 +2822,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="88" t="s">
+      <c r="A21" s="114"/>
+      <c r="B21" s="109" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="67" t="s">
@@ -2609,15 +2841,15 @@
         <v>42670</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -2625,18 +2857,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2648,7 +2880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L22" sqref="L22:N22"/>
     </sheetView>
   </sheetViews>
@@ -2659,564 +2891,581 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="110" t="s">
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="128"/>
+      <c r="N1" s="129"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="119"/>
+      <c r="C2" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="122"/>
+      <c r="N2" s="119"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="121"/>
+      <c r="C3" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="130"/>
+      <c r="N3" s="121"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="122"/>
+      <c r="N4" s="119"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="119"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="122"/>
+      <c r="N6" s="119"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="114" t="s">
+      <c r="B7" s="119"/>
+      <c r="C7" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="122"/>
+      <c r="N7" s="119"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="119"/>
+      <c r="C8" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="122"/>
+      <c r="N8" s="119"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="119"/>
+      <c r="C9" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="122"/>
+      <c r="N9" s="119"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="107" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="99"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="97" t="s">
+      <c r="B10" s="119"/>
+      <c r="C10" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="122"/>
+      <c r="N10" s="119"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="119"/>
+      <c r="C11" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="122"/>
+      <c r="N11" s="119"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="119"/>
+      <c r="C12" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="122"/>
+      <c r="N12" s="119"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="122"/>
+      <c r="N13" s="119"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="118" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="119"/>
+      <c r="C14" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="122"/>
+      <c r="N14" s="119"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="119"/>
+      <c r="C15" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="99"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" s="98"/>
-      <c r="N7" s="99"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="98"/>
-      <c r="N10" s="99"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="98"/>
-      <c r="N11" s="99"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" s="98"/>
-      <c r="N12" s="99"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" s="98"/>
-      <c r="N13" s="99"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="98"/>
-      <c r="N14" s="99"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="97" t="s">
+      <c r="M15" s="122"/>
+      <c r="N15" s="119"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="98"/>
-      <c r="N15" s="99"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="B16" s="119"/>
+      <c r="C16" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="97" t="s">
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="122"/>
+      <c r="N16" s="119"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="98"/>
-      <c r="N16" s="99"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+      <c r="B17" s="119"/>
+      <c r="C17" s="124" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="107" t="s">
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="106" t="s">
-        <v>118</v>
-      </c>
-      <c r="M17" s="98"/>
-      <c r="N17" s="99"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="119"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="97"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="99"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="119"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="99"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="119"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="99"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="119"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="99"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="119"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="99"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="119"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="99"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="119"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="99"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="119"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="99"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="119"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="99"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="119"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="100"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="102"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="L10:N10"/>
@@ -3233,47 +3482,30 @@
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3301,140 +3533,140 @@
       <c r="A1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="121" t="s">
+      <c r="C1" s="142"/>
+      <c r="D1" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="122"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="139"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="119">
+      <c r="B2" s="140">
         <v>42620</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="98" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="119">
+      <c r="B3" s="140">
         <v>42626</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="98" t="s">
+      <c r="C3" s="140"/>
+      <c r="D3" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="99"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="119"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="140">
+        <v>42674</v>
+      </c>
+      <c r="C4" s="140"/>
+      <c r="D4" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="119">
-        <v>42674</v>
-      </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="99"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="119"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="119"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="99"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="119"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
